--- a/data/5584.xlsx
+++ b/data/5584.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42873,6 +42873,41 @@
         <v>34200</v>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>5584</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>YEELEE</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5584.xlsx
+++ b/data/5584.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42908,6 +42908,41 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>5584</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>YEELEE</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>14600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5584.xlsx
+++ b/data/5584.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42943,6 +42943,41 @@
         <v>14600</v>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>5584</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>YEELEE</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>13100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5584.xlsx
+++ b/data/5584.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42978,6 +42978,43 @@
         <v>13100</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>5584</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>YEELEE</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5584.xlsx
+++ b/data/5584.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43015,6 +43015,43 @@
         </is>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>5584</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>YEELEE</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5584.xlsx
+++ b/data/5584.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43052,6 +43052,41 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>5584</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>YEELEE</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>4100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5584.xlsx
+++ b/data/5584.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43087,6 +43087,41 @@
         <v>4100</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5584</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>YEELEE</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5584.xlsx
+++ b/data/5584.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43122,6 +43122,43 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5584</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>YEELEE</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5584.xlsx
+++ b/data/5584.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43159,6 +43159,43 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5584</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>YEELEE</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5584.xlsx
+++ b/data/5584.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43196,6 +43196,41 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5584</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>YEELEE</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5584.xlsx
+++ b/data/5584.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43231,6 +43231,41 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5584</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>YEELEE</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5584.xlsx
+++ b/data/5584.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43266,6 +43266,76 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5584</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>YEELEE</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5584</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>YEELEE</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5584.xlsx
+++ b/data/5584.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43336,6 +43336,78 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5584</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>YEELEE</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5584</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>YEELEE</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>21000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5584.xlsx
+++ b/data/5584.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43408,6 +43408,43 @@
         <v>21000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5584</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>YEELEE</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5584.xlsx
+++ b/data/5584.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43445,6 +43445,41 @@
         </is>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5584</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>YEELEE</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>10500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5584.xlsx
+++ b/data/5584.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43480,6 +43480,41 @@
         <v>10500</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5584</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>YEELEE</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5584.xlsx
+++ b/data/5584.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43515,6 +43515,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5584</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>YEELEE</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I1230" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5584.xlsx
+++ b/data/5584.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43552,6 +43552,78 @@
         </is>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5584</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>YEELEE</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I1231" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5584</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>YEELEE</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>7000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5584.xlsx
+++ b/data/5584.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43624,6 +43624,41 @@
         <v>7000</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5584</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>YEELEE</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>18000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5584.xlsx
+++ b/data/5584.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43659,6 +43659,41 @@
         <v>18000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5584</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>YEELEE</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>18000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5584.xlsx
+++ b/data/5584.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2654"/>
+  <dimension ref="A1:I2655"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93394,6 +93394,41 @@
         <v>18000</v>
       </c>
     </row>
+    <row r="2655">
+      <c r="A2655" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2655" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2655" t="inlineStr">
+        <is>
+          <t>5584</t>
+        </is>
+      </c>
+      <c r="D2655" t="inlineStr">
+        <is>
+          <t>YEELEE</t>
+        </is>
+      </c>
+      <c r="E2655" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="F2655" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="G2655" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H2655" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="I2655" t="n">
+        <v>1200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5584.xlsx
+++ b/data/5584.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2655"/>
+  <dimension ref="A1:I2656"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93429,6 +93429,41 @@
         <v>1200</v>
       </c>
     </row>
+    <row r="2656">
+      <c r="A2656" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2656" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2656" t="inlineStr">
+        <is>
+          <t>5584</t>
+        </is>
+      </c>
+      <c r="D2656" t="inlineStr">
+        <is>
+          <t>YEELEE</t>
+        </is>
+      </c>
+      <c r="E2656" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F2656" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G2656" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H2656" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I2656" t="n">
+        <v>14000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5584.xlsx
+++ b/data/5584.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2656"/>
+  <dimension ref="A1:I2657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93464,6 +93464,41 @@
         <v>14000</v>
       </c>
     </row>
+    <row r="2657">
+      <c r="A2657" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2657" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2657" t="inlineStr">
+        <is>
+          <t>5584</t>
+        </is>
+      </c>
+      <c r="D2657" t="inlineStr">
+        <is>
+          <t>YEELEE</t>
+        </is>
+      </c>
+      <c r="E2657" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F2657" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="G2657" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H2657" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="I2657" t="n">
+        <v>7800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5584.xlsx
+++ b/data/5584.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2657"/>
+  <dimension ref="A1:I2658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93499,6 +93499,41 @@
         <v>7800</v>
       </c>
     </row>
+    <row r="2658">
+      <c r="A2658" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2658" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2658" t="inlineStr">
+        <is>
+          <t>5584</t>
+        </is>
+      </c>
+      <c r="D2658" t="inlineStr">
+        <is>
+          <t>YEELEE</t>
+        </is>
+      </c>
+      <c r="E2658" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F2658" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="G2658" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H2658" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="I2658" t="n">
+        <v>61600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5584.xlsx
+++ b/data/5584.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2658"/>
+  <dimension ref="A1:I2659"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93534,6 +93534,43 @@
         <v>61600</v>
       </c>
     </row>
+    <row r="2659">
+      <c r="A2659" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2659" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2659" t="inlineStr">
+        <is>
+          <t>5584</t>
+        </is>
+      </c>
+      <c r="D2659" t="inlineStr">
+        <is>
+          <t>YEELEE</t>
+        </is>
+      </c>
+      <c r="E2659" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="F2659" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G2659" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H2659" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="I2659" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5584.xlsx
+++ b/data/5584.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2659"/>
+  <dimension ref="A1:I2660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93571,6 +93571,41 @@
         </is>
       </c>
     </row>
+    <row r="2660">
+      <c r="A2660" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2660" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2660" t="inlineStr">
+        <is>
+          <t>5584</t>
+        </is>
+      </c>
+      <c r="D2660" t="inlineStr">
+        <is>
+          <t>YEELEE</t>
+        </is>
+      </c>
+      <c r="E2660" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F2660" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G2660" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="H2660" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I2660" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5584.xlsx
+++ b/data/5584.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2660"/>
+  <dimension ref="A1:I2661"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93606,6 +93606,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2661">
+      <c r="A2661" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2661" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2661" t="inlineStr">
+        <is>
+          <t>5584</t>
+        </is>
+      </c>
+      <c r="D2661" t="inlineStr">
+        <is>
+          <t>YEELEE</t>
+        </is>
+      </c>
+      <c r="E2661" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F2661" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G2661" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H2661" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I2661" t="n">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5584.xlsx
+++ b/data/5584.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2661"/>
+  <dimension ref="A1:I2662"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93641,6 +93641,41 @@
         <v>200</v>
       </c>
     </row>
+    <row r="2662">
+      <c r="A2662" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2662" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2662" t="inlineStr">
+        <is>
+          <t>5584</t>
+        </is>
+      </c>
+      <c r="D2662" t="inlineStr">
+        <is>
+          <t>YEELEE</t>
+        </is>
+      </c>
+      <c r="E2662" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F2662" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G2662" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H2662" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I2662" t="n">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5584.xlsx
+++ b/data/5584.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2662"/>
+  <dimension ref="A1:I2663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93676,6 +93676,43 @@
         <v>500</v>
       </c>
     </row>
+    <row r="2663">
+      <c r="A2663" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2663" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2663" t="inlineStr">
+        <is>
+          <t>5584</t>
+        </is>
+      </c>
+      <c r="D2663" t="inlineStr">
+        <is>
+          <t>YEELEE</t>
+        </is>
+      </c>
+      <c r="E2663" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F2663" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G2663" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H2663" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I2663" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5584.xlsx
+++ b/data/5584.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2663"/>
+  <dimension ref="A1:I2664"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93713,6 +93713,43 @@
         </is>
       </c>
     </row>
+    <row r="2664">
+      <c r="A2664" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2664" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2664" t="inlineStr">
+        <is>
+          <t>5584</t>
+        </is>
+      </c>
+      <c r="D2664" t="inlineStr">
+        <is>
+          <t>YEELEE</t>
+        </is>
+      </c>
+      <c r="E2664" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F2664" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G2664" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H2664" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I2664" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5584.xlsx
+++ b/data/5584.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2664"/>
+  <dimension ref="A1:I2665"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93750,6 +93750,41 @@
         </is>
       </c>
     </row>
+    <row r="2665">
+      <c r="A2665" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2665" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2665" t="inlineStr">
+        <is>
+          <t>5584</t>
+        </is>
+      </c>
+      <c r="D2665" t="inlineStr">
+        <is>
+          <t>YEELEE</t>
+        </is>
+      </c>
+      <c r="E2665" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F2665" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G2665" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H2665" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I2665" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5584.xlsx
+++ b/data/5584.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2665"/>
+  <dimension ref="A1:I2666"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93785,6 +93785,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2666">
+      <c r="A2666" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2666" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2666" t="inlineStr">
+        <is>
+          <t>5584</t>
+        </is>
+      </c>
+      <c r="D2666" t="inlineStr">
+        <is>
+          <t>YEELEE</t>
+        </is>
+      </c>
+      <c r="E2666" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F2666" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G2666" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H2666" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I2666" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5584.xlsx
+++ b/data/5584.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2666"/>
+  <dimension ref="A1:I2667"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93822,6 +93822,43 @@
         </is>
       </c>
     </row>
+    <row r="2667">
+      <c r="A2667" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2667" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2667" t="inlineStr">
+        <is>
+          <t>5584</t>
+        </is>
+      </c>
+      <c r="D2667" t="inlineStr">
+        <is>
+          <t>YEELEE</t>
+        </is>
+      </c>
+      <c r="E2667" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F2667" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G2667" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H2667" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I2667" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5584.xlsx
+++ b/data/5584.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2667"/>
+  <dimension ref="A1:I2668"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93859,6 +93859,43 @@
         </is>
       </c>
     </row>
+    <row r="2668">
+      <c r="A2668" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2668" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2668" t="inlineStr">
+        <is>
+          <t>5584</t>
+        </is>
+      </c>
+      <c r="D2668" t="inlineStr">
+        <is>
+          <t>YEELEE</t>
+        </is>
+      </c>
+      <c r="E2668" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F2668" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G2668" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H2668" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I2668" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5584.xlsx
+++ b/data/5584.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2668"/>
+  <dimension ref="A1:I2669"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93896,6 +93896,43 @@
         </is>
       </c>
     </row>
+    <row r="2669">
+      <c r="A2669" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2669" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2669" t="inlineStr">
+        <is>
+          <t>5584</t>
+        </is>
+      </c>
+      <c r="D2669" t="inlineStr">
+        <is>
+          <t>YEELEE</t>
+        </is>
+      </c>
+      <c r="E2669" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F2669" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G2669" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H2669" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I2669" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
